--- a/imf-dm-export-20241001.xlsx
+++ b/imf-dm-export-20241001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1048933\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BE1FFF-0435-47E9-B054-2FB9CA6800CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE9504-0493-4B9A-A6E9-0607E8DFE414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA9C6BFE-92E6-4A33-BC12-859E01D8CB32}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <sheet name="NGDPDPC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="230">
   <si>
     <t>GDP per capita, current prices
  (U.S. dollars per capita)</t>
@@ -723,9 +712,6 @@
   <si>
     <t>World</t>
   </si>
-  <si>
-    <t>©IMF, 2024</t>
-  </si>
 </sst>
 </file>
 
@@ -1094,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860D4B5-F66D-43A8-9F66-FDDB7387917C}">
-  <dimension ref="A1:AY231"/>
+  <dimension ref="A1:AY229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A230" sqref="A230:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36601,11 +36587,6 @@
         <v>16761.749</v>
       </c>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
